--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H2">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I2">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J2">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>3.302675884454206</v>
+        <v>3.550816576294999</v>
       </c>
       <c r="R2">
-        <v>3.302675884454206</v>
+        <v>14.20326630518</v>
       </c>
       <c r="S2">
-        <v>4.866296058918713E-05</v>
+        <v>4.50730427940839E-05</v>
       </c>
       <c r="T2">
-        <v>4.866296058918713E-05</v>
+        <v>2.250953170727843E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H3">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I3">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J3">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>276.7578043325947</v>
+        <v>312.2040553817625</v>
       </c>
       <c r="R3">
-        <v>276.7578043325947</v>
+        <v>1873.224332290575</v>
       </c>
       <c r="S3">
-        <v>0.004077861284657273</v>
+        <v>0.003963028347522175</v>
       </c>
       <c r="T3">
-        <v>0.004077861284657273</v>
+        <v>0.002968711674944956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H4">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I4">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J4">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>2.349925728844534</v>
+        <v>2.524585051431667</v>
       </c>
       <c r="R4">
-        <v>2.349925728844534</v>
+        <v>15.14751030859</v>
       </c>
       <c r="S4">
-        <v>3.462475493539881E-05</v>
+        <v>3.204635542712707E-05</v>
       </c>
       <c r="T4">
-        <v>3.462475493539881E-05</v>
+        <v>2.40059825853707E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H5">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I5">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J5">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>1.675890836220692</v>
+        <v>1.770583171296667</v>
       </c>
       <c r="R5">
-        <v>1.675890836220692</v>
+        <v>10.62349902778</v>
       </c>
       <c r="S5">
-        <v>2.469325255277504E-05</v>
+        <v>2.247527275362963E-05</v>
       </c>
       <c r="T5">
-        <v>2.469325255277504E-05</v>
+        <v>1.683626731133273E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H6">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I6">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J6">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>5.384758058239689</v>
+        <v>6.412214724130832</v>
       </c>
       <c r="R6">
-        <v>5.384758058239689</v>
+        <v>38.473288344785</v>
       </c>
       <c r="S6">
-        <v>7.93412003896137E-05</v>
+        <v>8.139480664674933E-05</v>
       </c>
       <c r="T6">
-        <v>7.93412003896137E-05</v>
+        <v>6.097299630046109E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H7">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I7">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J7">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>120.1598787399828</v>
+        <v>136.4499415807637</v>
       </c>
       <c r="R7">
-        <v>120.1598787399828</v>
+        <v>545.799766323055</v>
       </c>
       <c r="S7">
-        <v>0.001770484191636506</v>
+        <v>0.001732056253532893</v>
       </c>
       <c r="T7">
-        <v>0.001770484191636506</v>
+        <v>0.0008649909733364159</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H8">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I8">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J8">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>528.334362253353</v>
+        <v>578.115304639058</v>
       </c>
       <c r="R8">
-        <v>528.334362253353</v>
+        <v>3468.691827834348</v>
       </c>
       <c r="S8">
-        <v>0.007784691912781224</v>
+        <v>0.007338429148908613</v>
       </c>
       <c r="T8">
-        <v>0.007784691912781224</v>
+        <v>0.005497230496406253</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H9">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I9">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J9">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>44273.39017399942</v>
+        <v>50830.54523050136</v>
       </c>
       <c r="R9">
-        <v>44273.39017399942</v>
+        <v>457474.9070745122</v>
       </c>
       <c r="S9">
-        <v>0.6523420149486098</v>
+        <v>0.6452282992357707</v>
       </c>
       <c r="T9">
-        <v>0.6523420149486098</v>
+        <v>0.7250125221071455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H10">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I10">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J10">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>375.9213906323109</v>
+        <v>411.0325680687528</v>
       </c>
       <c r="R10">
-        <v>375.9213906323109</v>
+        <v>3699.293112618775</v>
       </c>
       <c r="S10">
-        <v>0.005538977622079227</v>
+        <v>0.005217529019664553</v>
       </c>
       <c r="T10">
-        <v>0.005538977622079227</v>
+        <v>0.005862690582844336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H11">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I11">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J11">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>268.0949469878792</v>
+        <v>288.2720657260787</v>
       </c>
       <c r="R11">
-        <v>268.0949469878792</v>
+        <v>2594.448591534708</v>
       </c>
       <c r="S11">
-        <v>0.00395021924520074</v>
+        <v>0.003659242564528075</v>
       </c>
       <c r="T11">
-        <v>0.00395021924520074</v>
+        <v>0.004111717796402629</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H12">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I12">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J12">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>861.4083894759237</v>
+        <v>1043.985063435722</v>
       </c>
       <c r="R12">
-        <v>861.4083894759237</v>
+        <v>9395.865570921502</v>
       </c>
       <c r="S12">
-        <v>0.01269233917429637</v>
+        <v>0.01325204567162451</v>
       </c>
       <c r="T12">
-        <v>0.01269233917429637</v>
+        <v>0.01489069693137061</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H13">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I13">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J13">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N13">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O13">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P13">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q13">
-        <v>19222.1686667326</v>
+        <v>22215.67852070072</v>
       </c>
       <c r="R13">
-        <v>19222.1686667326</v>
+        <v>133294.0711242043</v>
       </c>
       <c r="S13">
-        <v>0.2832271978824528</v>
+        <v>0.2819994238361819</v>
       </c>
       <c r="T13">
-        <v>0.2832271978824528</v>
+        <v>0.2112462764475696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H14">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I14">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J14">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N14">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O14">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P14">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q14">
-        <v>0.7223224893519634</v>
+        <v>0.2162808745893333</v>
       </c>
       <c r="R14">
-        <v>0.7223224893519634</v>
+        <v>1.297685247536</v>
       </c>
       <c r="S14">
-        <v>1.064299133846948E-05</v>
+        <v>2.74540712155812E-06</v>
       </c>
       <c r="T14">
-        <v>1.064299133846948E-05</v>
+        <v>2.056589420901439E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H15">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I15">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J15">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P15">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q15">
-        <v>60.5292172671494</v>
+        <v>19.01640501486</v>
       </c>
       <c r="R15">
-        <v>60.5292172671494</v>
+        <v>171.14764513374</v>
       </c>
       <c r="S15">
-        <v>0.0008918619378396587</v>
+        <v>0.0002413887675152069</v>
       </c>
       <c r="T15">
-        <v>0.0008918619378396587</v>
+        <v>0.0002712371409496807</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H16">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I16">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J16">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N16">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O16">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P16">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q16">
-        <v>0.5139481625311594</v>
+        <v>0.1537729283297778</v>
       </c>
       <c r="R16">
-        <v>0.5139481625311594</v>
+        <v>1.383956354968</v>
       </c>
       <c r="S16">
-        <v>7.572719834805134E-06</v>
+        <v>1.951949257376635E-06</v>
       </c>
       <c r="T16">
-        <v>7.572719834805134E-06</v>
+        <v>2.193313058016826E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H17">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I17">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J17">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N17">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O17">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P17">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q17">
-        <v>0.3665311653496159</v>
+        <v>0.1078465385617778</v>
       </c>
       <c r="R17">
-        <v>0.3665311653496159</v>
+        <v>0.9706188470560001</v>
       </c>
       <c r="S17">
-        <v>5.400618249606051E-06</v>
+        <v>1.368972894922349E-06</v>
       </c>
       <c r="T17">
-        <v>5.400618249606051E-06</v>
+        <v>1.538250092904401E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H18">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I18">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J18">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N18">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O18">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P18">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q18">
-        <v>1.177691054545764</v>
+        <v>0.3905691490368888</v>
       </c>
       <c r="R18">
-        <v>1.177691054545764</v>
+        <v>3.515122341332</v>
       </c>
       <c r="S18">
-        <v>1.735257572302456E-05</v>
+        <v>4.957772273035058E-06</v>
       </c>
       <c r="T18">
-        <v>1.735257572302456E-05</v>
+        <v>5.570814212525091E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H19">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I19">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J19">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N19">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O19">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P19">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q19">
-        <v>26.27995775796142</v>
+        <v>8.311190417372666</v>
       </c>
       <c r="R19">
-        <v>26.27995775796142</v>
+        <v>49.867142504236</v>
       </c>
       <c r="S19">
-        <v>0.0003872195133288174</v>
+        <v>0.0001054998570900261</v>
       </c>
       <c r="T19">
-        <v>0.0003872195133288174</v>
+        <v>7.903013301532596E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H20">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I20">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J20">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N20">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O20">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P20">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q20">
-        <v>5.562152021756495</v>
+        <v>0.7772060898333332</v>
       </c>
       <c r="R20">
-        <v>5.562152021756495</v>
+        <v>4.663236538999999</v>
       </c>
       <c r="S20">
-        <v>8.19549947059169E-05</v>
+        <v>9.86563022735255E-06</v>
       </c>
       <c r="T20">
-        <v>8.19549947059169E-05</v>
+        <v>7.390361377289515E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H21">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I21">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J21">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P21">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q21">
-        <v>466.0975023771742</v>
+        <v>68.33551885874999</v>
       </c>
       <c r="R21">
-        <v>466.0975023771742</v>
+        <v>615.0196697287499</v>
       </c>
       <c r="S21">
-        <v>0.006867668878942179</v>
+        <v>0.0008674313921025454</v>
       </c>
       <c r="T21">
-        <v>0.006867668878942179</v>
+        <v>0.0009746916278905723</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H22">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I22">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J22">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N22">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O22">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P22">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q22">
-        <v>3.957592146778357</v>
+        <v>0.5525835632777777</v>
       </c>
       <c r="R22">
-        <v>3.957592146778357</v>
+        <v>4.9732520695</v>
       </c>
       <c r="S22">
-        <v>5.831276135005251E-05</v>
+        <v>7.014336578577867E-06</v>
       </c>
       <c r="T22">
-        <v>5.831276135005251E-05</v>
+        <v>7.881678252126503E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H23">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I23">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J23">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N23">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O23">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P23">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q23">
-        <v>2.822426398789225</v>
+        <v>0.3875469187777777</v>
       </c>
       <c r="R23">
-        <v>2.822426398789225</v>
+        <v>3.487922269</v>
       </c>
       <c r="S23">
-        <v>4.158677067182425E-05</v>
+        <v>4.91940895269013E-06</v>
       </c>
       <c r="T23">
-        <v>4.158677067182425E-05</v>
+        <v>5.527707163946123E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H24">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I24">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J24">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N24">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O24">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P24">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q24">
-        <v>9.06865946527995</v>
+        <v>1.403511622138889</v>
       </c>
       <c r="R24">
-        <v>9.06865946527995</v>
+        <v>12.63160459925</v>
       </c>
       <c r="S24">
-        <v>0.0001336212918236773</v>
+        <v>1.781577224489238E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001336212918236773</v>
+        <v>2.001874062847958E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H25">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I25">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J25">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N25">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O25">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P25">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q25">
-        <v>202.3654563299845</v>
+        <v>29.86629223879166</v>
       </c>
       <c r="R25">
-        <v>202.3654563299845</v>
+        <v>179.19775343275</v>
       </c>
       <c r="S25">
-        <v>0.002981734378584448</v>
+        <v>0.0003791141105870048</v>
       </c>
       <c r="T25">
-        <v>0.002981734378584448</v>
+        <v>0.0002839950632550243</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H26">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I26">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J26">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N26">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O26">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P26">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q26">
-        <v>9.271619716662165</v>
+        <v>6.558997519354666</v>
       </c>
       <c r="R26">
-        <v>9.271619716662165</v>
+        <v>39.35398511612799</v>
       </c>
       <c r="S26">
-        <v>0.0001366117901528273</v>
+        <v>8.325802516801192E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001366117901528273</v>
+        <v>6.236873665152478E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H27">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I27">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J27">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P27">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q27">
-        <v>776.9436678507938</v>
+        <v>576.69710073228</v>
       </c>
       <c r="R27">
-        <v>776.9436678507938</v>
+        <v>5190.27390659052</v>
       </c>
       <c r="S27">
-        <v>0.01144780184655928</v>
+        <v>0.007320426877034677</v>
       </c>
       <c r="T27">
-        <v>0.01144780184655928</v>
+        <v>0.008225617443168725</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H28">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I28">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J28">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N28">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O28">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P28">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q28">
-        <v>6.596959096955793</v>
+        <v>4.663363126184889</v>
       </c>
       <c r="R28">
-        <v>6.596959096955793</v>
+        <v>41.970268135664</v>
       </c>
       <c r="S28">
-        <v>9.720226015962558E-05</v>
+        <v>5.919538822537641E-05</v>
       </c>
       <c r="T28">
-        <v>9.720226015962558E-05</v>
+        <v>6.651505794960408E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H29">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I29">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J29">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N29">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O29">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P29">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q29">
-        <v>4.704737329271723</v>
+        <v>3.270585900120889</v>
       </c>
       <c r="R29">
-        <v>4.704737329271723</v>
+        <v>29.435273101088</v>
       </c>
       <c r="S29">
-        <v>6.932150027633203E-05</v>
+        <v>4.151587531217751E-05</v>
       </c>
       <c r="T29">
-        <v>6.932150027633203E-05</v>
+        <v>4.664942548741035E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H30">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I30">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J30">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N30">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O30">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P30">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q30">
-        <v>15.11666016554366</v>
+        <v>11.84451507574844</v>
       </c>
       <c r="R30">
-        <v>15.11666016554366</v>
+        <v>106.600635681736</v>
       </c>
       <c r="S30">
-        <v>0.0002227349772160745</v>
+        <v>0.0001503508625166528</v>
       </c>
       <c r="T30">
-        <v>0.0002227349772160745</v>
+        <v>0.0001689421529763864</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.51036533333333</v>
+      </c>
+      <c r="H31">
+        <v>34.531096</v>
+      </c>
+      <c r="I31">
+        <v>0.01085416677473077</v>
+      </c>
+      <c r="J31">
+        <v>0.0109667839124114</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>21.8974465</v>
+      </c>
+      <c r="N31">
+        <v>43.794893</v>
+      </c>
+      <c r="O31">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P31">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q31">
+        <v>252.0476090821213</v>
+      </c>
+      <c r="R31">
+        <v>1512.285654492728</v>
+      </c>
+      <c r="S31">
+        <v>0.003199419746473876</v>
+      </c>
+      <c r="T31">
+        <v>0.002396691096177752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>26.4379255</v>
+      </c>
+      <c r="H32">
+        <v>52.875851</v>
+      </c>
+      <c r="I32">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J32">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.569834</v>
+      </c>
+      <c r="N32">
+        <v>1.139668</v>
+      </c>
+      <c r="O32">
+        <v>0.007670604929513537</v>
+      </c>
+      <c r="P32">
+        <v>0.005687058042690201</v>
+      </c>
+      <c r="Q32">
+        <v>15.065228839367</v>
+      </c>
+      <c r="R32">
+        <v>60.260915357468</v>
+      </c>
+      <c r="S32">
+        <v>0.0001912336752939169</v>
+      </c>
+      <c r="T32">
+        <v>9.55023271269543E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>26.4379255</v>
+      </c>
+      <c r="H33">
+        <v>52.875851</v>
+      </c>
+      <c r="I33">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J33">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>50.102415</v>
+      </c>
+      <c r="N33">
+        <v>150.307245</v>
+      </c>
+      <c r="O33">
+        <v>0.6744347151618419</v>
+      </c>
+      <c r="P33">
+        <v>0.7500482829664925</v>
+      </c>
+      <c r="Q33">
+        <v>1324.603915140083</v>
+      </c>
+      <c r="R33">
+        <v>7947.623490840495</v>
+      </c>
+      <c r="S33">
+        <v>0.01681414054189654</v>
+      </c>
+      <c r="T33">
+        <v>0.01259550297239307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>26.4379255</v>
+      </c>
+      <c r="H34">
+        <v>52.875851</v>
+      </c>
+      <c r="I34">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J34">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.4051446666666667</v>
+      </c>
+      <c r="N34">
+        <v>1.215434</v>
+      </c>
+      <c r="O34">
+        <v>0.005453701739979455</v>
+      </c>
+      <c r="P34">
+        <v>0.006065138009542361</v>
+      </c>
+      <c r="Q34">
+        <v>10.71118451405567</v>
+      </c>
+      <c r="R34">
+        <v>64.26710708433401</v>
+      </c>
+      <c r="S34">
+        <v>0.0001359646908264434</v>
+      </c>
+      <c r="T34">
+        <v>0.0001018513948529068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>26.4379255</v>
+      </c>
+      <c r="H35">
+        <v>52.875851</v>
+      </c>
+      <c r="I35">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J35">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.2841426666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.8524280000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.00382487906937539</v>
+      </c>
+      <c r="P35">
+        <v>0.004253701528176911</v>
+      </c>
+      <c r="Q35">
+        <v>7.512142652704669</v>
+      </c>
+      <c r="R35">
+        <v>45.07285591622801</v>
+      </c>
+      <c r="S35">
+        <v>9.535697493389482E-05</v>
+      </c>
+      <c r="T35">
+        <v>7.14320817186895E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>16.6501541873884</v>
-      </c>
-      <c r="H31">
-        <v>16.6501541873884</v>
-      </c>
-      <c r="I31">
-        <v>0.01694396213742651</v>
-      </c>
-      <c r="J31">
-        <v>0.01694396213742651</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="N31">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="O31">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="P31">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="Q31">
-        <v>337.3254717852731</v>
-      </c>
-      <c r="R31">
-        <v>337.3254717852731</v>
-      </c>
-      <c r="S31">
-        <v>0.004970289763062371</v>
-      </c>
-      <c r="T31">
-        <v>0.004970289763062371</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>26.4379255</v>
+      </c>
+      <c r="H36">
+        <v>52.875851</v>
+      </c>
+      <c r="I36">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J36">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.029030333333333</v>
+      </c>
+      <c r="N36">
+        <v>3.087091</v>
+      </c>
+      <c r="O36">
+        <v>0.01385190274270336</v>
+      </c>
+      <c r="P36">
+        <v>0.01540489484662774</v>
+      </c>
+      <c r="Q36">
+        <v>27.20542728990683</v>
+      </c>
+      <c r="R36">
+        <v>163.232563739441</v>
+      </c>
+      <c r="S36">
+        <v>0.0003453378573975188</v>
+      </c>
+      <c r="T36">
+        <v>0.0002586932111392761</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>26.4379255</v>
+      </c>
+      <c r="H37">
+        <v>52.875851</v>
+      </c>
+      <c r="I37">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J37">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>21.8974465</v>
+      </c>
+      <c r="N37">
+        <v>43.794893</v>
+      </c>
+      <c r="O37">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P37">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q37">
+        <v>578.9230592072358</v>
+      </c>
+      <c r="R37">
+        <v>2315.692236828943</v>
+      </c>
+      <c r="S37">
+        <v>0.007348682552720472</v>
+      </c>
+      <c r="T37">
+        <v>0.003669940893116208</v>
       </c>
     </row>
   </sheetData>
